--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/3_quant-dynamic_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/3_quant-dynamic_metrics.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.281</v>
+        <v>0.313</v>
       </c>
       <c r="C4" t="n">
-        <v>0.281</v>
+        <v>0.313</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.183</v>
+        <v>0.396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.183</v>
+        <v>0.396</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.213</v>
+        <v>0.178</v>
       </c>
       <c r="C6" t="n">
-        <v>0.213</v>
+        <v>0.178</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.778438936802559</v>
+        <v>1.86000378173776</v>
       </c>
       <c r="C4" t="n">
-        <v>1.770581654738635</v>
+        <v>1.839485811302438</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.44</v>
+        <v>-1.1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1655636948954726</v>
+        <v>0.3120377164483483</v>
       </c>
       <c r="F4" t="n">
-        <v>0.164843666457372</v>
+        <v>0.2903912136191604</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.43</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.742</v>
+        <v>10.657</v>
       </c>
       <c r="C5" t="n">
-        <v>10.742</v>
+        <v>10.657</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.76246669615295</v>
+        <v>18.9343281175948</v>
       </c>
       <c r="C6" t="n">
-        <v>19.53168588929937</v>
+        <v>19.13967990833445</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.17</v>
+        <v>1.08</v>
       </c>
       <c r="E6" t="n">
-        <v>2.89898421137785</v>
+        <v>2.987655924779167</v>
       </c>
       <c r="F6" t="n">
-        <v>2.823740017187091</v>
+        <v>2.699604373889474</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.6</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/3_quant-dynamic_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/3_quant-dynamic_metrics.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.313</v>
+        <v>0.328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.313</v>
+        <v>0.328</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.396</v>
+        <v>0.367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.396</v>
+        <v>0.367</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.178</v>
+        <v>0.273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.178</v>
+        <v>0.273</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.86000378173776</v>
+        <v>1.915824248455465</v>
       </c>
       <c r="C4" t="n">
-        <v>1.839485811302438</v>
+        <v>1.898787936312146</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.1</v>
+        <v>-0.89</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3120377164483483</v>
+        <v>0.2557410097620131</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2903912136191604</v>
+        <v>0.244249171852616</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.94</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.657</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.657</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.9343281175948</v>
+        <v>18.55424894071388</v>
       </c>
       <c r="C6" t="n">
-        <v>19.13967990833445</v>
+        <v>18.57409156433181</v>
       </c>
       <c r="D6" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="E6" t="n">
-        <v>2.987655924779167</v>
+        <v>2.607045382035015</v>
       </c>
       <c r="F6" t="n">
-        <v>2.699604373889474</v>
+        <v>2.561855916235038</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.640000000000001</v>
+        <v>-1.73</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/3_quant-dynamic_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/3_quant-dynamic_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
